--- a/biology/Botanique/Carex_de_Buxbaum/Carex_de_Buxbaum.xlsx
+++ b/biology/Botanique/Carex_de_Buxbaum/Carex_de_Buxbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Laîche de Buxbaum (Carex buxbaumii) est une espèce de plantes du genre Carex et de la famille des Cyperaceae.
 Elle est originaire d'une grande partie du nord de l'hémisphère Nord, de l'Alaska au Groenland jusqu'en Eurasie et y compris la plus grande partie du Canada et des États-Unis.
